--- a/Use case diagram.xlsx
+++ b/Use case diagram.xlsx
@@ -241,6 +241,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF990033"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -258,13 +263,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>59377</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1494311</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>128649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -314,13 +319,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>717466</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>68284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>29687</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>113806</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -370,13 +375,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>646217</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>72244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1010889</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>146463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -426,13 +431,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>546266</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>56409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134094</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -482,13 +487,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>35627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>316676</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -538,13 +543,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>713510</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>80160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>356259</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>154379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -594,13 +599,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>648197</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>98962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>236025</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>173180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -650,13 +655,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565067</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>35627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>929739</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -706,13 +711,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>348983</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>25907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1452398</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -762,13 +767,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>82081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>854529</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>156301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -818,13 +823,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>593767</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>64324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564080</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>130152</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -834,8 +839,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1900053" y="1191773"/>
-          <a:ext cx="623456" cy="1185502"/>
+          <a:off x="1900052" y="1944584"/>
+          <a:ext cx="623457" cy="1193984"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1042,13 +1047,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>460169</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>178642</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1058,8 +1063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7479756" y="3028207"/>
-          <a:ext cx="507107" cy="1077068"/>
+          <a:off x="7485411" y="3795156"/>
+          <a:ext cx="505693" cy="1084135"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -1266,13 +1271,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>34929</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>59666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537651</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>168045</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1282,8 +1287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1994358" y="4919360"/>
-          <a:ext cx="502722" cy="1041441"/>
+          <a:off x="1994358" y="5700446"/>
+          <a:ext cx="502722" cy="1048508"/>
           <a:chOff x="1813956" y="4426527"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1490,13 +1495,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564080</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>173385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>646217</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>109353</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1538,13 +1543,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>37605</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>74220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>376052</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73743</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1554,8 +1559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7564299" y="641833"/>
-          <a:ext cx="338447" cy="745971"/>
+          <a:off x="7568540" y="1390402"/>
+          <a:ext cx="338447" cy="751626"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -1762,13 +1767,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1494311</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>6769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>37605</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>91541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1810,13 +1815,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>29687</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>91046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1858,13 +1863,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>564080</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>91046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>717466</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>173385</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1906,13 +1911,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134094</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>93519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1954,13 +1959,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>316676</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2002,13 +2007,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>236025</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2050,13 +2055,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>356259</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>855022</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>117270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2098,13 +2103,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537651</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>72737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565067</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>111476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2146,13 +2151,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537651</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>111476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>348983</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>70438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2194,13 +2199,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537651</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>111476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>119191</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2242,13 +2247,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537651</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>91045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>717466</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>111476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2290,13 +2295,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>294869</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>265181</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57043</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2306,8 +2311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="948012" y="8041572"/>
-          <a:ext cx="623455" cy="1190572"/>
+          <a:off x="948013" y="8829726"/>
+          <a:ext cx="623453" cy="1192693"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -2514,13 +2519,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>283975</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>118323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>601081</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>164704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2561,13 +2566,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>283975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>164704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>445842</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>90872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2608,13 +2613,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>283975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>164704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>366328</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>129682</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2655,13 +2660,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>265181</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>105684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>164704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2702,13 +2707,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476592</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>49853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>979714</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>15551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2756,13 +2761,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511904</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>135935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1034144</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>139959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2810,13 +2815,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>156241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2872,13 +2877,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>316968</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>83245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2929,13 +2934,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>345415</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>15640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>140507</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>22045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2986,13 +2991,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>259592</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>46256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1488964</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>8044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3048,13 +3053,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>564867</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>148192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1003040</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>15551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,13 +3107,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>532485</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>100716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>995266</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3156,13 +3161,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552061</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>177556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>972489</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38878</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3210,13 +3215,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>567612</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>886408</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>139960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3264,7 +3269,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>42079</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="350096" cy="264560"/>
@@ -3316,7 +3321,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>11526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="378758" cy="264560"/>
@@ -3368,13 +3373,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>601081</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>14199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1386745</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>37864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3425,13 +3430,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>445842</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1231506</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>10413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3482,13 +3487,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>366328</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>25558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1151992</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>49222</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3539,13 +3544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>50167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>283975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>94656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3596,13 +3601,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>241378</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>94658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>283974</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>151453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3656,16 +3661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600659</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>618155</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3674,8 +3679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17145000" y="1700893"/>
-          <a:ext cx="802821" cy="394607"/>
+          <a:off x="19423874" y="1563526"/>
+          <a:ext cx="1976924" cy="813189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3698,12 +3703,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>User</a:t>
           </a:r>
         </a:p>
@@ -3713,16 +3718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>136069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>421820</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>73869</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19442</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3731,8 +3736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15035892" y="3184071"/>
-          <a:ext cx="938893" cy="503464"/>
+          <a:off x="19550226" y="5966407"/>
+          <a:ext cx="1905001" cy="907143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3755,12 +3760,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>Course</a:t>
           </a:r>
         </a:p>
@@ -3770,16 +3775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>649256</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>50541</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3788,8 +3793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811750" y="3075214"/>
-          <a:ext cx="1496786" cy="653143"/>
+          <a:off x="25350756" y="6020834"/>
+          <a:ext cx="2013857" cy="860491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3812,12 +3817,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>Assignment</a:t>
           </a:r>
         </a:p>
@@ -3827,130 +3832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>585106</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="Rectangle 154"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20710071" y="3034394"/>
-          <a:ext cx="1660072" cy="625928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>StudentAssignment</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Rectangle 155"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10531929" y="2653393"/>
-          <a:ext cx="1864178" cy="612321"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CourseEnrollment</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349898</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>186612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>101082</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23327</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478194</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237153</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3959,8 +3850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13288347" y="4486469"/>
-          <a:ext cx="1710612" cy="956388"/>
+          <a:off x="13894837" y="5919751"/>
+          <a:ext cx="1899816" cy="899369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3983,12 +3874,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>Quiz</a:t>
           </a:r>
         </a:p>
@@ -3998,73 +3889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>186612</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>629816</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="Rectangle 157"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17043918" y="4634204"/>
-          <a:ext cx="1096347" cy="614265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>StudentQuiz</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590939</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>46653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>384884</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392661</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4073,8 +3907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14835673" y="6593633"/>
-          <a:ext cx="1368490" cy="707571"/>
+          <a:off x="13801527" y="8493451"/>
+          <a:ext cx="2148634" cy="865671"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4097,17 +3931,5389 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>Question</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>579273</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143846</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120521</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="Group 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="772498">
+          <a:off x="13988493" y="3512762"/>
+          <a:ext cx="2365171" cy="932357"/>
+          <a:chOff x="12479694" y="2192694"/>
+          <a:chExt cx="2363755" cy="925286"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Flowchart: Decision 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12479694" y="2192694"/>
+            <a:ext cx="2363755" cy="925286"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12806266" y="2480388"/>
+            <a:ext cx="1746697" cy="342786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>QuizAttendance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>432835</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Group 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17129402" y="3619924"/>
+          <a:ext cx="2778966" cy="992485"/>
+          <a:chOff x="15781174" y="2290667"/>
+          <a:chExt cx="2778967" cy="990597"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Flowchart: Decision 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15781174" y="2290667"/>
+            <a:ext cx="2778967" cy="990597"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="TextBox 88"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16232156" y="2625013"/>
+            <a:ext cx="1963294" cy="342786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>CourseEnrollment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>641481</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89416</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="20657313">
+          <a:off x="24455748" y="3551639"/>
+          <a:ext cx="2845837" cy="1050401"/>
+          <a:chOff x="19765347" y="2216021"/>
+          <a:chExt cx="2845837" cy="1041917"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Flowchart: Decision 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19765347" y="2216021"/>
+            <a:ext cx="2845837" cy="1041917"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="TextBox 95"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20140127" y="2583026"/>
+            <a:ext cx="2122825" cy="342786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>StudentAssignment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>518628</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89419</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32399</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="Group 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21300446" y="3710122"/>
+          <a:ext cx="1530220" cy="834901"/>
+          <a:chOff x="15781174" y="2290667"/>
+          <a:chExt cx="2778967" cy="990597"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="990033"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Flowchart: Decision 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15781174" y="2290667"/>
+            <a:ext cx="2778967" cy="990597"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="TextBox 98"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16642528" y="2574479"/>
+            <a:ext cx="1048132" cy="373895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Has</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95639</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319573</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75942</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="104" name="Group 103"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16958601" y="6198003"/>
+          <a:ext cx="1530219" cy="834901"/>
+          <a:chOff x="15781174" y="2290667"/>
+          <a:chExt cx="2778967" cy="990597"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="990033"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="Flowchart: Decision 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15781174" y="2290667"/>
+            <a:ext cx="2778967" cy="990597"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="TextBox 105"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16642528" y="2574479"/>
+            <a:ext cx="1048132" cy="373895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Has</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>597938</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80607</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="Group 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22686042" y="6209263"/>
+          <a:ext cx="1530220" cy="828306"/>
+          <a:chOff x="15781174" y="2290667"/>
+          <a:chExt cx="2778967" cy="990597"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="990033"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="Flowchart: Decision 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15781174" y="2290667"/>
+            <a:ext cx="2778967" cy="990597"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="TextBox 108"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16642528" y="2574479"/>
+            <a:ext cx="1048132" cy="373895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Has</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>64537</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37322</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="Group 109"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14089577" y="7483340"/>
+          <a:ext cx="1531635" cy="827126"/>
+          <a:chOff x="15781174" y="2290667"/>
+          <a:chExt cx="2778967" cy="990597"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="990033"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="Flowchart: Decision 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15781174" y="2290667"/>
+            <a:ext cx="2778967" cy="990597"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="TextBox 111"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16642528" y="2574479"/>
+            <a:ext cx="1048132" cy="373895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Has</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593530</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170645</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="157" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14844745" y="4291143"/>
+          <a:ext cx="230257" cy="1628608"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>349637</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="153" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18519709" y="4472213"/>
+          <a:ext cx="1983018" cy="1503266"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373227</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>630596</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="153" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20502727" y="4395756"/>
+          <a:ext cx="1563654" cy="1570651"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237153</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95639</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="3"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15794653" y="6369436"/>
+          <a:ext cx="1164771" cy="27478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>649256</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="3"/>
+          <a:endCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24217086" y="6401579"/>
+          <a:ext cx="1133670" cy="49501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>8567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="154" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26016352" y="4433890"/>
+          <a:ext cx="341333" cy="1586944"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>618155</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>387987</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21400798" y="1970121"/>
+          <a:ext cx="4341832" cy="1490719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>349637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="2"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18519709" y="2385787"/>
+          <a:ext cx="1892627" cy="1126929"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371047</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600659</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15275404" y="1970121"/>
+          <a:ext cx="4148470" cy="1444265"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>608304</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>624629</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="159" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859519" y="8047394"/>
+          <a:ext cx="16325" cy="446057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593530</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>608304</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="0"/>
+          <a:endCxn id="157" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14844745" y="6819120"/>
+          <a:ext cx="14774" cy="425064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319573</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>73869</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="3"/>
+          <a:endCxn id="153" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18489645" y="6396914"/>
+          <a:ext cx="1060581" cy="23065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19442</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>597938</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="1"/>
+          <a:endCxn id="153" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21455227" y="6401579"/>
+          <a:ext cx="1231639" cy="18400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>630596</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="0"/>
+          <a:endCxn id="152" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20412336" y="2376715"/>
+          <a:ext cx="1654045" cy="1217129"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281214</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>255124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="Oval 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19756747" y="224312"/>
+          <a:ext cx="1280195" cy="429317"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UserId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>34470</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>117926</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Oval 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17551398" y="914400"/>
+          <a:ext cx="1389743" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Password</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>41729</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Oval 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18338800" y="368301"/>
+          <a:ext cx="1179286" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>497114</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="Oval 185"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21196299" y="223160"/>
+          <a:ext cx="1389743" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UserName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>350155</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>433611</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Oval 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21785940" y="685799"/>
+          <a:ext cx="1389743" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Role</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>268170</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="Straight Connector 188"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="4"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20396845" y="653629"/>
+          <a:ext cx="14666" cy="953604"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>522169</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Straight Connector 190"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="5"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19345384" y="739962"/>
+          <a:ext cx="1066952" cy="832636"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>617179</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Straight Connector 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="186" idx="3"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20412336" y="580883"/>
+          <a:ext cx="987486" cy="991715"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>117926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="Straight Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="184" idx="6"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18941141" y="1123950"/>
+          <a:ext cx="1471195" cy="448648"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282836</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>350155</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="Straight Connector 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20412336" y="895349"/>
+          <a:ext cx="1373604" cy="677249"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>558798</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>108029</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="Oval 211"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18074902" y="7483600"/>
+          <a:ext cx="1508660" cy="420002"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CourseId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>52614</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="Oval 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19538042" y="8031842"/>
+          <a:ext cx="1221017" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Title</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>275773</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="Oval 213"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20906014" y="7663545"/>
+          <a:ext cx="1467759" cy="377371"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>540235</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373228</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>24070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="Straight Connector 216"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="2"/>
+          <a:endCxn id="212" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19362624" y="7108584"/>
+          <a:ext cx="1139279" cy="436524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9979</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373227</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="Straight Connector 218"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="2"/>
+          <a:endCxn id="213" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20148551" y="7009622"/>
+          <a:ext cx="363248" cy="1022220"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>373227</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>195036</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="Straight Connector 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="2"/>
+          <a:endCxn id="214" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20511799" y="7009622"/>
+          <a:ext cx="1128095" cy="653923"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30839</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>631064</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>124432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="Oval 223"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23425228" y="7372928"/>
+          <a:ext cx="1906511" cy="460569"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AssignmentId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>146955</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="Oval 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24195312" y="7785102"/>
+          <a:ext cx="1195616" cy="515256"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Title</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>435425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9070</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="Oval 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24483782" y="8499929"/>
+          <a:ext cx="1533073" cy="489856"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>270327</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>497113</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="Oval 227"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26278112" y="8479973"/>
+          <a:ext cx="1533073" cy="489856"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Display</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="Oval 228"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27350357" y="6945087"/>
+          <a:ext cx="1302656" cy="620485"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>File</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>439055</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="Oval 229"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27099983" y="7864929"/>
+          <a:ext cx="1533073" cy="529772"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deadline</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>351862</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349898</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Straight Connector 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="224" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25052537" y="7116359"/>
+          <a:ext cx="1304323" cy="324018"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>514334</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Straight Connector 233"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="226" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25215834" y="6890397"/>
+          <a:ext cx="1141851" cy="970162"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>437699</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="Straight Connector 235"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="227" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25792342" y="6890397"/>
+          <a:ext cx="565343" cy="1681270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>494840</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Straight Connector 237"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="228" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26357685" y="6890397"/>
+          <a:ext cx="144940" cy="1661314"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>10424</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104797</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="Straight Connector 239"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="230" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26357685" y="6890397"/>
+          <a:ext cx="966811" cy="1052115"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>349900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>227055</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Connector 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="229" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26357685" y="6890397"/>
+          <a:ext cx="1183442" cy="145558"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>248558</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>618671</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="Oval 244"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26918558" y="4368801"/>
+          <a:ext cx="1676399" cy="459013"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AssignmentId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>390072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="Oval 245"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25091572" y="2068286"/>
+          <a:ext cx="1329870" cy="535214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>StudentId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85270</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="Oval 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27402971" y="2725058"/>
+          <a:ext cx="1302656" cy="620485"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>File</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>384630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>415472</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="Oval 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27054630" y="1868715"/>
+          <a:ext cx="1990270" cy="513442"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SubmissionDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>218902</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588318</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="Straight Connector 249"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="246" idx="5"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26226687" y="2525120"/>
+          <a:ext cx="1022559" cy="1046001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588317</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>433616</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="254" name="Straight Connector 253"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="245" idx="0"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27258317" y="3640064"/>
+          <a:ext cx="498441" cy="728737"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>279669</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="Straight Connector 255"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="247" idx="3"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27249246" y="3254675"/>
+          <a:ext cx="344495" cy="316446"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>22956</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="Straight Connector 257"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="248" idx="3"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27258317" y="2306965"/>
+          <a:ext cx="87781" cy="1333099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7258</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>30842</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="Oval 268"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19483615" y="3164115"/>
+          <a:ext cx="1329870" cy="535214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>StudentId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>48983</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>39916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>132440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="Oval 269"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19525340" y="4412344"/>
+          <a:ext cx="1389743" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CourseId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>432835</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="272" name="Straight Connector 271"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="269" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19909192" y="3699329"/>
+          <a:ext cx="239358" cy="293136"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>432835</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>90712</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>39916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="Straight Connector 273"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="270" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19909192" y="3992465"/>
+          <a:ext cx="311020" cy="419879"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272139</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474518</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="Oval 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11721932" y="6069446"/>
+          <a:ext cx="1508664" cy="418901"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QuizId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277583</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361043</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>183243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="Oval 277"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11740241" y="6794501"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Title</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474518</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478194</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="Straight Connector 279"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="6"/>
+          <a:endCxn id="157" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230596" y="6278897"/>
+          <a:ext cx="656818" cy="309079"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361043</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478194</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="284" name="Straight Connector 283"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="278" idx="6"/>
+          <a:endCxn id="157" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13129985" y="6496436"/>
+          <a:ext cx="770295" cy="513965"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466273</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="Oval 284"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13235215" y="2347686"/>
+          <a:ext cx="1329870" cy="546097"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>StudentId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>576939</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7255</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="Oval 285"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039597" y="3133273"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QuizId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>653139</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="Oval 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115797" y="3971473"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Score</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478064</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608967</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="Straight Connector 294"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="285" idx="4"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13900150" y="2893783"/>
+          <a:ext cx="130903" cy="772004"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7255</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608967</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="297" name="Straight Connector 296"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="286" idx="6"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13429341" y="3349173"/>
+          <a:ext cx="601712" cy="316614"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83455</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608967</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="Straight Connector 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="293" idx="6"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13505541" y="3665787"/>
+          <a:ext cx="525512" cy="521586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223153</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425532</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="Oval 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11672946" y="8969663"/>
+          <a:ext cx="1508664" cy="421740"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QuestionId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88898</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>74386</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="Oval 306"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12121240" y="10223500"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OptionA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255810</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339270</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="Oval 307"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11718468" y="9548586"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Question</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>386441</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>150586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="Oval 308"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15299869" y="10299700"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OptionC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212268</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110670</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="Oval 309"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13634354" y="10310586"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OptionB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>48983</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>132443</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>30843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="Oval 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16921841" y="10179957"/>
+          <a:ext cx="1389744" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OptionD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179611</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="Oval 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17052469" y="9134929"/>
+          <a:ext cx="1823359" cy="455385"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CorrectOption</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425532</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>155286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>384884</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>5774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="314" name="Straight Connector 313"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="1"/>
+          <a:endCxn id="300" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13181610" y="9180533"/>
+          <a:ext cx="612494" cy="38514"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339270</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>384884</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="Straight Connector 315"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="308" idx="6"/>
+          <a:endCxn id="159" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13108212" y="9107716"/>
+          <a:ext cx="698758" cy="656770"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>538519</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622816</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>75936</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="318" name="Straight Connector 317"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="307" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13307461" y="9549622"/>
+          <a:ext cx="1575641" cy="737114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68940</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622816</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="320" name="Straight Connector 319"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="310" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14329226" y="9549622"/>
+          <a:ext cx="553876" cy="760964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622816</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428169</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="Straight Connector 321"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="309" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14883102" y="9549622"/>
+          <a:ext cx="1111639" cy="750078"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622816</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>252506</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="Straight Connector 323"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="2"/>
+          <a:endCxn id="311" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14883102" y="9549622"/>
+          <a:ext cx="2242262" cy="693571"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392661</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179611</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>77108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="326" name="Straight Connector 325"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="3"/>
+          <a:endCxn id="312" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15959233" y="9107716"/>
+          <a:ext cx="1093236" cy="254906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4376,10 +9582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK79"/>
+  <dimension ref="B1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4389,59 +9595,100 @@
     <col min="6" max="6" width="10.765625" customWidth="1"/>
     <col min="7" max="7" width="21.765625" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.765625" customWidth="1"/>
-    <col min="15" max="15" width="11.84375" customWidth="1"/>
+    <col min="19" max="19" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="4"/>
+    <row r="1" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
     </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="1"/>
+    <row r="2" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="3:43" x14ac:dyDescent="0.4">
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -4463,20 +9710,15 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="6"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="1"/>
+    <row r="5" spans="3:43" x14ac:dyDescent="0.4">
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -4498,22 +9740,15 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="6"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="1"/>
+    <row r="6" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -4535,20 +9770,26 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="6"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.4">
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="1"/>
+    <row r="7" spans="3:43" x14ac:dyDescent="0.4">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -4570,20 +9811,24 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="6"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -4605,22 +9850,24 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="6"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4642,20 +9889,26 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="6"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -4677,9 +9930,15 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="6"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4689,8 +9948,6 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4712,22 +9969,24 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="6"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -4749,20 +10008,26 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="6"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -4784,13 +10049,17 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="6"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C14" s="5"/>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="11"/>
       <c r="G14" s="14"/>
@@ -4798,8 +10067,6 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -4821,22 +10088,24 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="6"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -4858,20 +10127,26 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="6"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -4893,9 +10168,15 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="6"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4905,8 +10186,6 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4928,22 +10207,26 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="6"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4965,20 +10248,26 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="6"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5000,9 +10289,15 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="6"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5012,8 +10307,6 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5035,22 +10328,24 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="6"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5072,20 +10367,26 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-      <c r="AK21" s="6"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="19" t="s">
+        <v>3</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -5107,9 +10408,15 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="6"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5117,12 +10424,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="6"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5144,22 +10447,24 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="6"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -5181,20 +10486,26 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-      <c r="AK24" s="6"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5216,9 +10527,15 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="6"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5228,8 +10545,6 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -5251,22 +10566,26 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-      <c r="AK26" s="6"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K27" s="6"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -5288,20 +10607,26 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AK27" s="6"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -5323,9 +10648,15 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="6"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5335,8 +10666,6 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -5358,22 +10687,24 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="6"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="G30" s="14"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -5395,20 +10726,26 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="6"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -5430,9 +10767,15 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="6"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:43" x14ac:dyDescent="0.4">
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5442,8 +10785,6 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -5465,24 +10806,24 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="6"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.4">
       <c r="C33" s="5"/>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -5504,20 +10845,26 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="6"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -5539,20 +10886,24 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="6"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="1"/>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="6"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -5574,11 +10925,24 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-      <c r="AK35" s="6"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="N36" s="5"/>
-      <c r="O36" s="1"/>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="6"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -5600,11 +10964,28 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="6"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="N37" s="5"/>
-      <c r="O37" s="1"/>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C37" s="5"/>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="6"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -5626,11 +11007,24 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="6"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="N38" s="5"/>
-      <c r="O38" s="1"/>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="6"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -5652,12 +11046,24 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-      <c r="AK38" s="6"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G39"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="1"/>
+    <row r="39" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -5679,19 +11085,15 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-      <c r="AK39" s="6"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="1"/>
+    <row r="40" spans="2:43" x14ac:dyDescent="0.4">
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -5713,19 +11115,15 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-      <c r="AK40" s="6"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="6"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="1"/>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.4">
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -5747,19 +11145,15 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-      <c r="AK41" s="6"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="6"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="1"/>
+    <row r="42" spans="2:43" x14ac:dyDescent="0.4">
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -5781,19 +11175,16 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
-      <c r="AK42" s="6"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
     </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="6"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="1"/>
+    <row r="43" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G43"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -5815,19 +11206,23 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-      <c r="AK43" s="6"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="6"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="1"/>
+    <row r="44" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -5849,9 +11244,15 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
-      <c r="AK44" s="6"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5860,8 +11261,6 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -5883,18 +11282,23 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-      <c r="AK45" s="6"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -5916,9 +11320,15 @@
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
-      <c r="AK46" s="6"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5927,8 +11337,6 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -5950,9 +11358,15 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-      <c r="AK47" s="6"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5961,8 +11375,6 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -5984,9 +11396,15 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-      <c r="AK48" s="6"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5995,42 +11413,73 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="9"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6039,8 +11488,36 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6049,8 +11526,36 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6059,8 +11564,36 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6069,74 +11602,242 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="6"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="6"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="G56"/>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="6"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G57"/>
+    <row r="57" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="6"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
+    <row r="58" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="6"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B59" s="5"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="6"/>
+    <row r="59" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B60" s="5"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="6"/>
+    <row r="60" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="G60"/>
     </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B61" s="5"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="6"/>
+    <row r="61" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G61"/>
     </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="B62" s="5"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="6"/>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6146,7 +11847,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6286,18 +11987,58 @@
       <c r="H77" s="1"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="5"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G79"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="5"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="5"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Use case diagram.xlsx
+++ b/Use case diagram.xlsx
@@ -839,8 +839,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1900052" y="1944584"/>
-          <a:ext cx="623457" cy="1193984"/>
+          <a:off x="1892414" y="1888159"/>
+          <a:ext cx="619636" cy="1154398"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1063,8 +1063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7485411" y="3795156"/>
-          <a:ext cx="505693" cy="1084135"/>
+          <a:off x="7472390" y="3672757"/>
+          <a:ext cx="512290" cy="1051148"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -1287,8 +1287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1994358" y="5700446"/>
-          <a:ext cx="502722" cy="1048508"/>
+          <a:off x="1982899" y="5512071"/>
+          <a:ext cx="502722" cy="1015523"/>
           <a:chOff x="1813956" y="4426527"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1559,8 +1559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7568540" y="1390402"/>
-          <a:ext cx="338447" cy="751626"/>
+          <a:off x="7562116" y="1353769"/>
+          <a:ext cx="338447" cy="725237"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -2311,8 +2311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="948013" y="8829726"/>
-          <a:ext cx="623453" cy="1192693"/>
+          <a:off x="944192" y="8554892"/>
+          <a:ext cx="619636" cy="1146512"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -3964,8 +3964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="772498">
-          <a:off x="13988493" y="3512762"/>
-          <a:ext cx="2365171" cy="932357"/>
+          <a:off x="13947694" y="3403558"/>
+          <a:ext cx="2352843" cy="899368"/>
           <a:chOff x="12479694" y="2192694"/>
           <a:chExt cx="2363755" cy="925286"/>
         </a:xfrm>
@@ -4090,8 +4090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17129402" y="3619924"/>
-          <a:ext cx="2778966" cy="992485"/>
+          <a:off x="17072456" y="3504122"/>
+          <a:ext cx="2763688" cy="959498"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4216,8 +4216,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="20657313">
-          <a:off x="24455748" y="3551639"/>
-          <a:ext cx="2845837" cy="1050401"/>
+          <a:off x="24356787" y="3442435"/>
+          <a:ext cx="2830559" cy="1010816"/>
           <a:chOff x="19765347" y="2216021"/>
           <a:chExt cx="2845837" cy="1041917"/>
         </a:xfrm>
@@ -4342,8 +4342,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21300446" y="3710122"/>
-          <a:ext cx="1530220" cy="834901"/>
+          <a:off x="21220582" y="3594320"/>
+          <a:ext cx="1518762" cy="801914"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4469,8 +4469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16958601" y="6198003"/>
-          <a:ext cx="1530219" cy="834901"/>
+          <a:off x="16901655" y="5996435"/>
+          <a:ext cx="1522579" cy="801912"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4596,8 +4596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22686042" y="6209263"/>
-          <a:ext cx="1530220" cy="828306"/>
+          <a:off x="22598540" y="6001098"/>
+          <a:ext cx="1518761" cy="801914"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4723,8 +4723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14089577" y="7483340"/>
-          <a:ext cx="1531635" cy="827126"/>
+          <a:off x="14048778" y="7245139"/>
+          <a:ext cx="1523127" cy="803687"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -5608,14 +5608,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>281214</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36287</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>255124</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>89551</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5624,7 +5624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19756747" y="224312"/>
+          <a:off x="19756747" y="382650"/>
           <a:ext cx="1280195" cy="429317"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5746,14 +5746,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>168728</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>41729</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>68944</xdr:rowOff>
+      <xdr:rowOff>108528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5762,8 +5762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18338800" y="368301"/>
-          <a:ext cx="1179286" cy="435428"/>
+          <a:off x="18337975" y="405410"/>
+          <a:ext cx="1179287" cy="455222"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5814,15 +5814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>413656</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>32660</xdr:rowOff>
+      <xdr:colOff>453240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>497114</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88902</xdr:rowOff>
+      <xdr:colOff>536698</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108694</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5831,8 +5831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21196299" y="223160"/>
-          <a:ext cx="1389743" cy="419099"/>
+          <a:off x="21235058" y="428503"/>
+          <a:ext cx="1389744" cy="432295"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5883,15 +5883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>350155</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>132442</xdr:rowOff>
+      <xdr:colOff>379843</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>433611</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188683</xdr:rowOff>
+      <xdr:colOff>463299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5900,8 +5900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21785940" y="685799"/>
-          <a:ext cx="1389743" cy="419099"/>
+          <a:off x="21814805" y="953819"/>
+          <a:ext cx="1389741" cy="432292"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5953,8 +5953,8 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>268170</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>89551</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
@@ -5972,8 +5972,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20396845" y="653629"/>
-          <a:ext cx="14666" cy="953604"/>
+          <a:off x="20396845" y="811967"/>
+          <a:ext cx="14666" cy="795266"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5999,9 +5999,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>522169</xdr:colOff>
+      <xdr:colOff>522170</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5177</xdr:rowOff>
+      <xdr:rowOff>41862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
@@ -6019,8 +6019,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19345384" y="739962"/>
-          <a:ext cx="1066952" cy="832636"/>
+          <a:off x="19344559" y="793966"/>
+          <a:ext cx="1066952" cy="813267"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6047,12 +6047,12 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>282836</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>27526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>617179</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3619</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>103026</xdr:rowOff>
     </xdr:to>
@@ -6066,8 +6066,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20412336" y="580883"/>
-          <a:ext cx="987486" cy="991715"/>
+          <a:off x="20411511" y="797490"/>
+          <a:ext cx="1027070" cy="809743"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6141,12 +6141,12 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>282836</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>350155</xdr:colOff>
+      <xdr:colOff>379843</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>103026</xdr:rowOff>
     </xdr:to>
@@ -6160,8 +6160,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20412336" y="895349"/>
-          <a:ext cx="1373604" cy="677249"/>
+          <a:off x="20411511" y="1169965"/>
+          <a:ext cx="1403294" cy="437268"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8575,16 +8575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>5440</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579413</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>81974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>88898</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>74386</xdr:rowOff>
+      <xdr:colOff>9729</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>143658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8593,8 +8593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12121240" y="10223500"/>
-          <a:ext cx="1389744" cy="431800"/>
+          <a:off x="12029206" y="10235376"/>
+          <a:ext cx="1389743" cy="437737"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8714,15 +8714,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>386441</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>297376</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>469899</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>150586</xdr:rowOff>
+      <xdr:colOff>380834</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>150585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8731,8 +8731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15299869" y="10299700"/>
-          <a:ext cx="1389744" cy="431800"/>
+          <a:off x="15200909" y="10242303"/>
+          <a:ext cx="1389743" cy="437737"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8783,15 +8783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>212268</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:colOff>172684</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>110670</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161472</xdr:rowOff>
+      <xdr:colOff>71086</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>181264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8800,8 +8800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13634354" y="10310586"/>
-          <a:ext cx="1389744" cy="431800"/>
+          <a:off x="13581904" y="10272982"/>
+          <a:ext cx="1392715" cy="437737"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8852,15 +8852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>48983</xdr:colOff>
+      <xdr:colOff>9398</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154215</xdr:rowOff>
+      <xdr:rowOff>55254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>132443</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>30843</xdr:rowOff>
+      <xdr:colOff>92858</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8869,8 +8869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16921841" y="10179957"/>
-          <a:ext cx="1389744" cy="431800"/>
+          <a:off x="16872360" y="10208656"/>
+          <a:ext cx="1389745" cy="440706"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -9084,15 +9084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>538519</xdr:colOff>
+      <xdr:colOff>459348</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>79050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>622816</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>75936</xdr:rowOff>
+      <xdr:colOff>621331</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>146079</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9104,8 +9104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13307461" y="9549622"/>
-          <a:ext cx="1575641" cy="737114"/>
+          <a:off x="13215426" y="9668375"/>
+          <a:ext cx="1656294" cy="631106"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9131,15 +9131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>68940</xdr:colOff>
+      <xdr:colOff>27873</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>79050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>622816</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:colOff>621331</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9151,8 +9151,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14329226" y="9549622"/>
-          <a:ext cx="553876" cy="760964"/>
+          <a:off x="14278262" y="9668375"/>
+          <a:ext cx="593458" cy="604607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9178,15 +9178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>622816</xdr:colOff>
+      <xdr:colOff>621331</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>79050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>428169</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>339106</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9198,8 +9198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14883102" y="9549622"/>
-          <a:ext cx="1111639" cy="750078"/>
+          <a:off x="14871720" y="9668375"/>
+          <a:ext cx="1024061" cy="573928"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9225,15 +9225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>622816</xdr:colOff>
+      <xdr:colOff>621331</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>79050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>252506</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>32393</xdr:rowOff>
+      <xdr:colOff>212921</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119794</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9245,8 +9245,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14883102" y="9549622"/>
-          <a:ext cx="2242262" cy="693571"/>
+          <a:off x="14871720" y="9668375"/>
+          <a:ext cx="2204163" cy="604821"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9584,8 +9584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="AS48" sqref="AS48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Use case diagram.xlsx
+++ b/Use case diagram.xlsx
@@ -65,14 +65,26 @@
     <t>Student</t>
   </si>
   <si>
-    <t xml:space="preserve">    CRUD User</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRUD User</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +95,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,6 +261,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +880,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1892414" y="1888159"/>
-          <a:ext cx="619636" cy="1154398"/>
+          <a:off x="1895320" y="1904247"/>
+          <a:ext cx="621089" cy="1166231"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1063,8 +1104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7472390" y="3672757"/>
-          <a:ext cx="512290" cy="1051148"/>
+          <a:off x="7475193" y="3708564"/>
+          <a:ext cx="510317" cy="1061010"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -1287,8 +1328,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1982899" y="5512071"/>
-          <a:ext cx="502722" cy="1015523"/>
+          <a:off x="1987258" y="5567601"/>
+          <a:ext cx="502722" cy="1025382"/>
           <a:chOff x="1813956" y="4426527"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -1559,8 +1600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7562116" y="1353769"/>
-          <a:ext cx="338447" cy="725237"/>
+          <a:off x="7562946" y="1363941"/>
+          <a:ext cx="338447" cy="733125"/>
           <a:chOff x="7826828" y="2220686"/>
           <a:chExt cx="658092" cy="1382008"/>
         </a:xfrm>
@@ -2311,8 +2352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="944192" y="8554892"/>
-          <a:ext cx="619636" cy="1146512"/>
+          <a:off x="945645" y="8634708"/>
+          <a:ext cx="621089" cy="1160317"/>
           <a:chOff x="1806039" y="900546"/>
           <a:chExt cx="658091" cy="1382008"/>
         </a:xfrm>
@@ -3964,8 +4005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="772498">
-          <a:off x="13947694" y="3403558"/>
-          <a:ext cx="2352843" cy="899368"/>
+          <a:off x="13961602" y="3435422"/>
+          <a:ext cx="2356995" cy="909229"/>
           <a:chOff x="12479694" y="2192694"/>
           <a:chExt cx="2363755" cy="925286"/>
         </a:xfrm>
@@ -4090,8 +4131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17072456" y="3504122"/>
-          <a:ext cx="2763688" cy="959498"/>
+          <a:off x="17091968" y="3537959"/>
+          <a:ext cx="2769501" cy="969358"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4216,8 +4257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="20657313">
-          <a:off x="24356787" y="3442435"/>
-          <a:ext cx="2830559" cy="1010816"/>
+          <a:off x="24392283" y="3474299"/>
+          <a:ext cx="2836372" cy="1022649"/>
           <a:chOff x="19765347" y="2216021"/>
           <a:chExt cx="2845837" cy="1041917"/>
         </a:xfrm>
@@ -4342,8 +4383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21220582" y="3594320"/>
-          <a:ext cx="1518762" cy="801914"/>
+          <a:off x="21248814" y="3628157"/>
+          <a:ext cx="1523120" cy="811774"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4469,8 +4510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16901655" y="5996435"/>
-          <a:ext cx="1522579" cy="801912"/>
+          <a:off x="16921167" y="6055908"/>
+          <a:ext cx="1525486" cy="811773"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4596,8 +4637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22598540" y="6001098"/>
-          <a:ext cx="1518761" cy="801914"/>
+          <a:off x="22629677" y="6062544"/>
+          <a:ext cx="1523120" cy="809802"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -4723,8 +4764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14048778" y="7245139"/>
-          <a:ext cx="1523127" cy="803687"/>
+          <a:off x="14062686" y="7314784"/>
+          <a:ext cx="1525826" cy="809914"/>
           <a:chOff x="15781174" y="2290667"/>
           <a:chExt cx="2778967" cy="990597"/>
         </a:xfrm>
@@ -9584,8 +9625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="AS48" sqref="AS48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9902,7 +9943,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
@@ -10021,7 +10062,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="22" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="11"/>
@@ -10140,7 +10181,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="11"/>
@@ -10261,7 +10302,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="11"/>
@@ -10499,7 +10540,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="11"/>
@@ -10620,7 +10661,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="11"/>
@@ -10739,7 +10780,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="24" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="11"/>
@@ -10979,7 +11020,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="21" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="11"/>
